--- a/DDF/Phase2.1/TY_08/TestData/TC_TestData.xlsx
+++ b/DDF/Phase2.1/TY_08/TestData/TC_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejashwini\Downloads\Bimbo\Bimbo\Bimbo Mobile\DDF\Phase2.1\TY_08\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejashwini\Downloads\Bimbo Mobile-TY\DDF\Phase2.1\TY_08\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="161">
   <si>
     <t>Expected Result</t>
   </si>
@@ -477,6 +477,36 @@
   </si>
   <si>
     <t>TC_369</t>
+  </si>
+  <si>
+    <t>FOLIO NO.:123456</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>BAG</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Vanload Acceptance</t>
+  </si>
+  <si>
+    <t>Select Bank</t>
+  </si>
+  <si>
+    <t>FOLIO NO.:1234566</t>
   </si>
 </sst>
 </file>
@@ -836,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,6 +1065,12 @@
       <c r="E14">
         <v>1234</v>
       </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -1482,7 +1518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -1495,8 +1531,11 @@
       <c r="E49">
         <v>1234</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -1510,7 +1549,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -1524,7 +1563,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -1532,7 +1571,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -1546,7 +1585,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -1554,7 +1593,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -1568,7 +1607,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1585,7 +1624,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -1599,7 +1638,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1607,7 +1646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -1621,7 +1660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -1641,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -1657,8 +1696,20 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="F61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61">
+        <v>123456</v>
+      </c>
+      <c r="I61">
+        <v>1234566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -1681,7 +1732,7 @@
         <v>123401123</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1704,7 +1755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -1854,7 +1905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -1865,7 +1916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -1873,7 +1924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -1881,7 +1932,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -1889,15 +1940,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>79</v>
       </c>
       <c r="D85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -1920,7 +1974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -1928,12 +1982,33 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>149</v>
       </c>
       <c r="B88" t="s">
         <v>148</v>
+      </c>
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/DDF/Phase2.1/TY_08/TestData/TC_TestData.xlsx
+++ b/DDF/Phase2.1/TY_08/TestData/TC_TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="171">
   <si>
     <t>Expected Result</t>
   </si>
@@ -233,9 +233,6 @@
     <t>TC_437</t>
   </si>
   <si>
-    <t>Please Pay Total Balance Amount</t>
-  </si>
-  <si>
     <t>TC_438</t>
   </si>
   <si>
@@ -507,6 +504,39 @@
   </si>
   <si>
     <t>FOLIO NO.:1234566</t>
+  </si>
+  <si>
+    <t>Saved Successfully.</t>
+  </si>
+  <si>
+    <t>TestData1</t>
+  </si>
+  <si>
+    <t>TestData2</t>
+  </si>
+  <si>
+    <t>TestData3</t>
+  </si>
+  <si>
+    <t>TestData4</t>
+  </si>
+  <si>
+    <t>3590320220205103553</t>
+  </si>
+  <si>
+    <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Please Pay Total Balance Amount $</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -572,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -584,6 +614,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,6 +912,7 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -901,6 +935,18 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -913,13 +959,25 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -932,6 +990,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1019,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1315,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1348,18 +1409,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1398,7 +1474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1415,7 +1491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1429,7 +1505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1446,7 +1522,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -1454,23 +1530,23 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44">
+        <v>1234</v>
+      </c>
+      <c r="F44">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>71</v>
-      </c>
-      <c r="E44">
-        <v>1234</v>
-      </c>
-      <c r="F44">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1482,9 +1558,9 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>123456</v>
@@ -1493,9 +1569,9 @@
         <v>123455</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>123456</v>
@@ -1504,9 +1580,9 @@
         <v>123455</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48">
         <v>123456</v>
@@ -1515,15 +1591,15 @@
         <v>123455</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1532,15 +1608,15 @@
         <v>1234</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1551,7 +1627,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -1560,12 +1636,12 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <v>1234</v>
@@ -1573,13 +1649,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53">
         <v>1234</v>
@@ -1587,7 +1663,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54">
         <v>1234</v>
@@ -1595,10 +1671,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -1609,10 +1685,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1626,10 +1702,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1640,29 +1716,29 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
         <v>128</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>123456</v>
@@ -1671,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -1682,7 +1758,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>123456</v>
@@ -1691,16 +1767,16 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H61">
         <v>123456</v>
@@ -1711,7 +1787,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>123456</v>
@@ -1720,13 +1796,13 @@
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62">
         <v>123401123</v>
@@ -1734,7 +1810,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>123456</v>
@@ -1743,21 +1819,21 @@
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" t="s">
         <v>131</v>
-      </c>
-      <c r="G63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>123456</v>
@@ -1766,7 +1842,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1775,240 +1851,252 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
         <v>102</v>
-      </c>
-      <c r="D68" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
         <v>108</v>
-      </c>
-      <c r="C73" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" t="s">
         <v>111</v>
-      </c>
-      <c r="F74" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
         <v>117</v>
-      </c>
-      <c r="D76" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
         <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>124</v>
       </c>
-      <c r="D80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
         <v>136</v>
       </c>
-      <c r="D82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>78</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" t="s">
         <v>141</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>142</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>143</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" t="s">
         <v>144</v>
       </c>
-      <c r="E86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" t="s">
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
         <v>147</v>
       </c>
-      <c r="G86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>149</v>
-      </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" t="s">
         <v>152</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>153</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>154</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>155</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>156</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>157</v>
       </c>
-      <c r="I88" t="s">
-        <v>158</v>
+      <c r="J88" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
